--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>13.24090133333333</v>
+        <v>5.433768000000001</v>
       </c>
       <c r="H2">
-        <v>39.722704</v>
+        <v>16.301304</v>
       </c>
       <c r="I2">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="J2">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N2">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q2">
-        <v>391.5480218317671</v>
+        <v>49.36109656072801</v>
       </c>
       <c r="R2">
-        <v>3523.932196485904</v>
+        <v>444.2498690465521</v>
       </c>
       <c r="S2">
-        <v>0.06450371371517831</v>
+        <v>0.0349130426622081</v>
       </c>
       <c r="T2">
-        <v>0.06450371371517831</v>
+        <v>0.03491304266220809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>13.24090133333333</v>
+        <v>5.433768000000001</v>
       </c>
       <c r="H3">
-        <v>39.722704</v>
+        <v>16.301304</v>
       </c>
       <c r="I3">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="J3">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>36.541011</v>
       </c>
       <c r="O3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q3">
-        <v>161.2786404237494</v>
+        <v>66.18512541981602</v>
       </c>
       <c r="R3">
-        <v>1451.507763813744</v>
+        <v>595.6661287783442</v>
       </c>
       <c r="S3">
-        <v>0.02656908136477958</v>
+        <v>0.04681265750534514</v>
       </c>
       <c r="T3">
-        <v>0.02656908136477958</v>
+        <v>0.04681265750534513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>13.24090133333333</v>
+        <v>5.433768000000001</v>
       </c>
       <c r="H4">
-        <v>39.722704</v>
+        <v>16.301304</v>
       </c>
       <c r="I4">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="J4">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N4">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q4">
-        <v>184.3404683395644</v>
+        <v>62.95060075632001</v>
       </c>
       <c r="R4">
-        <v>1659.06421505608</v>
+        <v>566.5554068068801</v>
       </c>
       <c r="S4">
-        <v>0.03036829234960635</v>
+        <v>0.04452488220380441</v>
       </c>
       <c r="T4">
-        <v>0.03036829234960635</v>
+        <v>0.04452488220380441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.270503666666667</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H5">
         <v>15.811511</v>
       </c>
       <c r="I5">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="J5">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N5">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q5">
-        <v>155.8545927342012</v>
+        <v>47.87798088067144</v>
       </c>
       <c r="R5">
-        <v>1402.691334607811</v>
+        <v>430.901827926043</v>
       </c>
       <c r="S5">
-        <v>0.0256755224656507</v>
+        <v>0.03386403677257798</v>
       </c>
       <c r="T5">
-        <v>0.0256755224656507</v>
+        <v>0.03386403677257797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.270503666666667</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H6">
         <v>15.811511</v>
       </c>
       <c r="I6">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="J6">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>36.541011</v>
       </c>
       <c r="O6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q6">
         <v>64.19651081973568</v>
       </c>
       <c r="R6">
-        <v>577.7685973776212</v>
+        <v>577.7685973776211</v>
       </c>
       <c r="S6">
-        <v>0.01057574837450913</v>
+        <v>0.04540611285360957</v>
       </c>
       <c r="T6">
-        <v>0.01057574837450913</v>
+        <v>0.04540611285360956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.270503666666667</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H7">
         <v>15.811511</v>
       </c>
       <c r="I7">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="J7">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N7">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q7">
-        <v>73.37620678834388</v>
+        <v>61.05917148193556</v>
       </c>
       <c r="R7">
-        <v>660.385861095095</v>
+        <v>549.53254333742</v>
       </c>
       <c r="S7">
-        <v>0.01208801365931727</v>
+        <v>0.04318707661296039</v>
       </c>
       <c r="T7">
-        <v>0.01208801365931727</v>
+        <v>0.04318707661296038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.52007366666665</v>
+        <v>32.33527633333333</v>
       </c>
       <c r="H8">
-        <v>271.560221</v>
+        <v>97.00582900000001</v>
       </c>
       <c r="I8">
-        <v>0.8302196280709587</v>
+        <v>0.7512921913894945</v>
       </c>
       <c r="J8">
-        <v>0.8302196280709586</v>
+        <v>0.7512921913894944</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N8">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O8">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P8">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q8">
-        <v>2676.778180577724</v>
+        <v>293.7381017017086</v>
       </c>
       <c r="R8">
-        <v>24091.00362519952</v>
+        <v>2643.642915315377</v>
       </c>
       <c r="S8">
-        <v>0.4409730705093629</v>
+        <v>0.2077605967203521</v>
       </c>
       <c r="T8">
-        <v>0.4409730705093629</v>
+        <v>0.2077605967203521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.52007366666665</v>
+        <v>32.33527633333333</v>
       </c>
       <c r="H9">
-        <v>271.560221</v>
+        <v>97.00582900000001</v>
       </c>
       <c r="I9">
-        <v>0.8302196280709587</v>
+        <v>0.7512921913894945</v>
       </c>
       <c r="J9">
-        <v>0.8302196280709586</v>
+        <v>0.7512921913894944</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>36.541011</v>
       </c>
       <c r="O9">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P9">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q9">
-        <v>1102.565002524826</v>
+        <v>393.8545627281244</v>
       </c>
       <c r="R9">
-        <v>9923.085022723431</v>
+        <v>3544.69106455312</v>
       </c>
       <c r="S9">
-        <v>0.1816368192655395</v>
+        <v>0.2785728460127532</v>
       </c>
       <c r="T9">
-        <v>0.1816368192655395</v>
+        <v>0.2785728460127531</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.52007366666665</v>
+        <v>32.33527633333333</v>
       </c>
       <c r="H10">
-        <v>271.560221</v>
+        <v>97.00582900000001</v>
       </c>
       <c r="I10">
-        <v>0.8302196280709587</v>
+        <v>0.7512921913894945</v>
       </c>
       <c r="J10">
-        <v>0.8302196280709586</v>
+        <v>0.7512921913894944</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N10">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O10">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P10">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q10">
-        <v>1260.224840724227</v>
+        <v>374.6065475752645</v>
       </c>
       <c r="R10">
-        <v>11342.02356651804</v>
+        <v>3371.45892817738</v>
       </c>
       <c r="S10">
-        <v>0.2076097382960563</v>
+        <v>0.2649587486563894</v>
       </c>
       <c r="T10">
-        <v>0.2076097382960563</v>
+        <v>0.2649587486563893</v>
       </c>
     </row>
   </sheetData>
